--- a/Zapproved.xlsx
+++ b/Zapproved.xlsx
@@ -3,14 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prash\Zapproved\Zapproved\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15312" windowHeight="6444"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5844"/>
   </bookViews>
   <sheets>
     <sheet name="ZapprovedData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:L16"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Test Fields</t>
   </si>
@@ -32,12 +36,21 @@
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>Add Organization</t>
+  </si>
+  <si>
+    <t>Delete User</t>
   </si>
   <si>
     <t xml:space="preserve">cg-satyam.dave@zapproved.com
 </t>
   </si>
   <si>
+    <t>https://zdiscovery-qa.io/zapproved</t>
+  </si>
+  <si>
     <t>Qwerty@12345</t>
   </si>
   <si>
@@ -50,26 +63,14 @@
     <t>Test Data</t>
   </si>
   <si>
-    <t>https://zdiscovery-dev.io/zapproved</t>
-  </si>
-  <si>
-    <t>AddOrganization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AddUser </t>
-  </si>
-  <si>
-    <t>AddAdminAccess</t>
-  </si>
-  <si>
-    <t>DeleteUser</t>
+    <t>Add User</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,13 +101,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -129,7 +123,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -137,20 +131,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -433,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -445,12 +436,9 @@
     <col min="3" max="3" width="10.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.109375" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="21.77734375" customWidth="1"/>
-    <col min="8" max="8" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,54 +452,45 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="6"/>
+      <c r="G2" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="G2" r:id="rId2"/>
-    <hyperlink ref="H2" r:id="rId3"/>
-    <hyperlink ref="F2" r:id="rId4"/>
-    <hyperlink ref="B2" r:id="rId5"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="G2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Zapproved.xlsx
+++ b/Zapproved.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5844"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17220" windowHeight="7884"/>
   </bookViews>
   <sheets>
     <sheet name="ZapprovedData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,46 +24,67 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>Test Fields</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Add Organization</t>
-  </si>
-  <si>
-    <t>Delete User</t>
   </si>
   <si>
     <t xml:space="preserve">cg-satyam.dave@zapproved.com
 </t>
   </si>
   <si>
-    <t>https://zdiscovery-qa.io/zapproved</t>
-  </si>
-  <si>
     <t>Qwerty@12345</t>
   </si>
   <si>
+    <t>www1@zapproved.com</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>https://zdiscovery-dev.io/zapproved</t>
+  </si>
+  <si>
+    <t>#AutomationDemo03</t>
+  </si>
+  <si>
+    <t>URL(1)</t>
+  </si>
+  <si>
+    <t>UserName(2)</t>
+  </si>
+  <si>
+    <t>Password(3)</t>
+  </si>
+  <si>
+    <t>Add Organization(4)</t>
+  </si>
+  <si>
+    <t>Search Organization(5)</t>
+  </si>
+  <si>
     <t>#AutomationDemo01</t>
   </si>
   <si>
-    <t>www1@zapproved.com</t>
-  </si>
-  <si>
-    <t>Test Data</t>
-  </si>
-  <si>
-    <t>Add User</t>
+    <t>Add User(6)</t>
+  </si>
+  <si>
+    <t>Admin User(7)</t>
+  </si>
+  <si>
+    <t>www11@zapproved.com</t>
+  </si>
+  <si>
+    <t>www22@zapproved.com</t>
+  </si>
+  <si>
+    <t>www100@zapproved.com</t>
+  </si>
+  <si>
+    <t>Remove Admin Access(8)</t>
+  </si>
+  <si>
+    <t>Delete User(9)</t>
   </si>
 </sst>
 </file>
@@ -123,7 +144,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -131,17 +152,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -424,73 +448,164 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="24.5546875" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" customWidth="1"/>
+    <col min="9" max="9" width="23.21875" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
+      <c r="H2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>10</v>
-      </c>
+    <row r="3" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="F2" r:id="rId2"/>
-    <hyperlink ref="G2" r:id="rId3"/>
+    <hyperlink ref="G2" r:id="rId2"/>
+    <hyperlink ref="G3" r:id="rId3"/>
+    <hyperlink ref="G4" r:id="rId4"/>
+    <hyperlink ref="G5" r:id="rId5"/>
+    <hyperlink ref="J3" r:id="rId6"/>
+    <hyperlink ref="J4" r:id="rId7"/>
+    <hyperlink ref="J5" r:id="rId8"/>
+    <hyperlink ref="H3" r:id="rId9"/>
+    <hyperlink ref="H4" r:id="rId10"/>
+    <hyperlink ref="H5" r:id="rId11"/>
+    <hyperlink ref="I3" r:id="rId12"/>
+    <hyperlink ref="I4" r:id="rId13"/>
+    <hyperlink ref="I5" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>